--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.4.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1C4955E-D569-4356-807C-EC9CC403D114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{207CEA37-01E4-4EE0-B805-6CA5400FE3B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="308">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -441,9 +441,6 @@
     <t>IDA-MLC-010</t>
   </si>
   <si>
-    <t>Unable to generate VID</t>
-  </si>
-  <si>
     <t>IDA-MLC-011</t>
   </si>
   <si>
@@ -817,9 +814,6 @@
   </si>
   <si>
     <t>Versions/Comments</t>
-  </si>
-  <si>
-    <t>"Could not generate VID"</t>
   </si>
   <si>
     <t>Yet to be decided</t>
@@ -1153,6 +1147,30 @@
   </si>
   <si>
     <t>IDA-MLC-019</t>
+  </si>
+  <si>
+    <t>Unable to generate/regenerate VID</t>
+  </si>
+  <si>
+    <t>"Could not generate/regenerate VID"</t>
+  </si>
+  <si>
+    <t>Unable to revoke VID</t>
+  </si>
+  <si>
+    <t>IDA-MLC-020</t>
+  </si>
+  <si>
+    <t>"Could not revoke VID"</t>
+  </si>
+  <si>
+    <t>Could not generate VID as the max no of instances is reached</t>
+  </si>
+  <si>
+    <t>"Could not generate/regenerate VID - max no of instances has been generated"</t>
+  </si>
+  <si>
+    <t>IDA-MLC-021</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1819,7 +1838,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
@@ -1854,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -1875,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -1896,7 +1915,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -1911,23 +1930,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1938,7 +1957,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
@@ -1953,7 +1972,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1970,7 +1989,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1987,7 +2006,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2008,7 +2027,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2029,7 +2048,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2037,7 +2056,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2051,10 +2070,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2068,10 +2087,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2080,21 +2099,21 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>48</v>
@@ -2112,17 +2131,17 @@
         <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2146,19 +2165,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2174,42 +2193,42 @@
         <v>57</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>52</v>
@@ -2219,7 +2238,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2233,14 +2252,14 @@
         <v>66</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -2248,7 +2267,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2257,32 +2276,32 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="6"/>
@@ -2291,7 +2310,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -2299,20 +2318,20 @@
         <v>79</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>33</v>
       </c>
@@ -2333,7 +2352,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>34</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2350,7 +2369,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>35</v>
       </c>
@@ -2358,16 +2377,16 @@
         <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>36</v>
       </c>
@@ -2380,30 +2399,30 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -2416,11 +2435,11 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39</v>
       </c>
@@ -2433,24 +2452,24 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>40</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -2459,10 +2478,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -2471,7 +2490,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42</v>
       </c>
@@ -2486,7 +2505,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43</v>
       </c>
@@ -2499,11 +2518,11 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44</v>
       </c>
@@ -2516,11 +2535,11 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>46</v>
       </c>
@@ -2537,7 +2556,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>47</v>
       </c>
@@ -2545,10 +2564,10 @@
         <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>59</v>
@@ -2579,15 +2598,15 @@
       <c r="A42" s="4">
         <v>49</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="6"/>
+      <c r="B42" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G42" s="8"/>
@@ -2597,15 +2616,15 @@
         <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G43" s="8"/>
     </row>
@@ -2614,15 +2633,15 @@
         <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" s="8"/>
     </row>
@@ -2631,60 +2650,60 @@
         <v>52</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="14" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>54</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -2692,139 +2711,139 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>58</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G55" s="8"/>
     </row>
@@ -2833,27 +2852,27 @@
         <v>63</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2862,75 +2881,75 @@
       </c>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>63</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="63" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>65</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>66</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>22</v>
       </c>
@@ -2938,7 +2957,7 @@
         <v>68</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>69</v>
@@ -2951,7 +2970,7 @@
       </c>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>26</v>
       </c>
@@ -2968,93 +2987,156 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>66</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>67</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>68</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="16"/>
       <c r="F66" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>69</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="16"/>
       <c r="F67" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>70</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="25"/>
       <c r="F68" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G68" s="18"/>
     </row>
+    <row r="69" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
+        <v>71</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
+        <v>72</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L68" xr:uid="{8A15E49D-E3E6-4BFB-9FD7-53150F47AAE3}"/>
+  <autoFilter ref="A1:L68" xr:uid="{8A15E49D-E3E6-4BFB-9FD7-53150F47AAE3}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="IDA-MLC-001"/>
+        <filter val="IDA-MLC-002"/>
+        <filter val="IDA-MLC-003"/>
+        <filter val="IDA-MLC-004"/>
+        <filter val="IDA-MLC-005"/>
+        <filter val="IDA-MLC-006"/>
+        <filter val="IDA-MLC-007"/>
+        <filter val="IDA-MLC-008"/>
+        <filter val="IDA-MLC-009"/>
+        <filter val="IDA-MLC-010"/>
+        <filter val="IDA-MLC-011"/>
+        <filter val="IDA-MLC-012"/>
+        <filter val="IDA-MLC-013"/>
+        <filter val="IDA-MLC-014"/>
+        <filter val="IDA-MLC-015"/>
+        <filter val="IDA-MLC-016"/>
+        <filter val="IDA-MLC-017"/>
+        <filter val="IDA-MLC-018"/>
+        <filter val="IDA-MLC-019"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3076,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -3093,13 +3175,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3107,13 +3189,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3121,13 +3203,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,13 +3217,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3149,13 +3231,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3163,13 +3245,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3177,13 +3259,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3205,13 +3287,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3219,13 +3301,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3233,13 +3315,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3247,13 +3329,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3261,13 +3343,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3275,13 +3357,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,13 +3371,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3303,13 +3385,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3317,13 +3399,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3331,13 +3413,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,13 +3427,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3359,13 +3441,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3373,13 +3455,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.4.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{207CEA37-01E4-4EE0-B805-6CA5400FE3B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52C09C66-0368-45C2-80B6-EF89CE93A458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,13 +1164,13 @@
     <t>"Could not revoke VID"</t>
   </si>
   <si>
-    <t>Could not generate VID as the max no of instances is reached</t>
-  </si>
-  <si>
-    <t>"Could not generate/regenerate VID - max no of instances has been generated"</t>
-  </si>
-  <si>
     <t>IDA-MLC-021</t>
+  </si>
+  <si>
+    <t>Could not generate VID as the max no of instances is reached/manual regeneration not allowed as per policy</t>
+  </si>
+  <si>
+    <t>"Could not generate/regenerate VID as per policy"</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1393,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1454,6 +1454,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1802,8 +1805,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2102,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2141,7 +2144,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2160,7 +2163,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3056,7 +3059,7 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="26">
         <v>70</v>
       </c>
       <c r="B68" s="18" t="s">
@@ -3088,27 +3091,23 @@
         <v>303</v>
       </c>
       <c r="G69" s="18"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="12">
+    </row>
+    <row r="70" spans="1:11" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="18">
         <v>72</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
       <c r="F70" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G70" s="18"/>
-      <c r="J70" s="18"/>
       <c r="K70" s="18"/>
     </row>
   </sheetData>

--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.4.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1C4955E-D569-4356-807C-EC9CC403D114}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52C09C66-0368-45C2-80B6-EF89CE93A458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="308">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -441,9 +441,6 @@
     <t>IDA-MLC-010</t>
   </si>
   <si>
-    <t>Unable to generate VID</t>
-  </si>
-  <si>
     <t>IDA-MLC-011</t>
   </si>
   <si>
@@ -817,9 +814,6 @@
   </si>
   <si>
     <t>Versions/Comments</t>
-  </si>
-  <si>
-    <t>"Could not generate VID"</t>
   </si>
   <si>
     <t>Yet to be decided</t>
@@ -1153,6 +1147,30 @@
   </si>
   <si>
     <t>IDA-MLC-019</t>
+  </si>
+  <si>
+    <t>Unable to generate/regenerate VID</t>
+  </si>
+  <si>
+    <t>"Could not generate/regenerate VID"</t>
+  </si>
+  <si>
+    <t>Unable to revoke VID</t>
+  </si>
+  <si>
+    <t>IDA-MLC-020</t>
+  </si>
+  <si>
+    <t>"Could not revoke VID"</t>
+  </si>
+  <si>
+    <t>IDA-MLC-021</t>
+  </si>
+  <si>
+    <t>Could not generate VID as the max no of instances is reached/manual regeneration not allowed as per policy</t>
+  </si>
+  <si>
+    <t>"Could not generate/regenerate VID as per policy"</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1393,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1436,6 +1454,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1781,10 +1802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1819,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
@@ -1854,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -1875,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -1896,7 +1918,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -1911,23 +1933,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1938,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
@@ -1953,7 +1975,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1970,7 +1992,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1987,7 +2009,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2008,7 +2030,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2029,7 +2051,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2051,10 +2073,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2068,10 +2090,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2080,21 +2102,21 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>48</v>
@@ -2112,17 +2134,17 @@
         <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2141,24 +2163,24 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2174,42 +2196,42 @@
         <v>57</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>52</v>
@@ -2219,7 +2241,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2233,14 +2255,14 @@
         <v>66</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2257,32 +2279,32 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="6"/>
@@ -2291,7 +2313,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -2299,20 +2321,20 @@
         <v>79</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>33</v>
       </c>
@@ -2333,7 +2355,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>34</v>
       </c>
@@ -2341,7 +2363,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2350,7 +2372,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>35</v>
       </c>
@@ -2358,16 +2380,16 @@
         <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>36</v>
       </c>
@@ -2380,30 +2402,30 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -2416,11 +2438,11 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39</v>
       </c>
@@ -2433,24 +2455,24 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>40</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -2459,10 +2481,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -2471,7 +2493,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42</v>
       </c>
@@ -2486,7 +2508,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43</v>
       </c>
@@ -2499,11 +2521,11 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44</v>
       </c>
@@ -2516,11 +2538,11 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>46</v>
       </c>
@@ -2537,7 +2559,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>47</v>
       </c>
@@ -2545,10 +2567,10 @@
         <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>59</v>
@@ -2579,15 +2601,15 @@
       <c r="A42" s="4">
         <v>49</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="6"/>
+      <c r="B42" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G42" s="8"/>
@@ -2597,15 +2619,15 @@
         <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G43" s="8"/>
     </row>
@@ -2614,15 +2636,15 @@
         <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" s="8"/>
     </row>
@@ -2631,60 +2653,60 @@
         <v>52</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="14" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>54</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -2692,139 +2714,139 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>58</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G55" s="8"/>
     </row>
@@ -2833,27 +2855,27 @@
         <v>63</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2862,75 +2884,75 @@
       </c>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>63</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="63" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>65</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>66</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>22</v>
       </c>
@@ -2938,7 +2960,7 @@
         <v>68</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>69</v>
@@ -2951,7 +2973,7 @@
       </c>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>26</v>
       </c>
@@ -2968,93 +2990,152 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>66</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>67</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>68</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="16"/>
       <c r="F66" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>69</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="16"/>
       <c r="F67" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+    <row r="68" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26">
         <v>70</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="25"/>
       <c r="F68" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G68" s="18"/>
     </row>
+    <row r="69" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
+        <v>71</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="18">
+        <v>72</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="K70" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L68" xr:uid="{8A15E49D-E3E6-4BFB-9FD7-53150F47AAE3}"/>
+  <autoFilter ref="A1:L68" xr:uid="{8A15E49D-E3E6-4BFB-9FD7-53150F47AAE3}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="IDA-MLC-001"/>
+        <filter val="IDA-MLC-002"/>
+        <filter val="IDA-MLC-003"/>
+        <filter val="IDA-MLC-004"/>
+        <filter val="IDA-MLC-005"/>
+        <filter val="IDA-MLC-006"/>
+        <filter val="IDA-MLC-007"/>
+        <filter val="IDA-MLC-008"/>
+        <filter val="IDA-MLC-009"/>
+        <filter val="IDA-MLC-010"/>
+        <filter val="IDA-MLC-011"/>
+        <filter val="IDA-MLC-012"/>
+        <filter val="IDA-MLC-013"/>
+        <filter val="IDA-MLC-014"/>
+        <filter val="IDA-MLC-015"/>
+        <filter val="IDA-MLC-016"/>
+        <filter val="IDA-MLC-017"/>
+        <filter val="IDA-MLC-018"/>
+        <filter val="IDA-MLC-019"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3076,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -3093,13 +3174,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3107,13 +3188,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3121,13 +3202,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,13 +3216,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3149,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3163,13 +3244,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3177,13 +3258,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,13 +3272,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3205,13 +3286,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3219,13 +3300,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3233,13 +3314,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3247,13 +3328,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3261,13 +3342,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3275,13 +3356,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,13 +3370,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3303,13 +3384,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3317,13 +3398,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3331,13 +3412,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,13 +3426,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3359,13 +3440,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3373,13 +3454,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
